--- a/PMT_V1.xlsx
+++ b/PMT_V1.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -666,7 +665,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
